--- a/ucla_ece.xlsx
+++ b/ucla_ece.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>05</t>
   </si>
@@ -70,6 +70,9 @@
     <t>communication systems</t>
   </si>
   <si>
+    <t>digital signal</t>
+  </si>
+  <si>
     <t>image processing</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>transmission lines</t>
   </si>
   <si>
+    <t>ordinary differential</t>
+  </si>
+  <si>
     <t>engineering problems</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>computer systems</t>
   </si>
   <si>
+    <t>design laboratory</t>
+  </si>
+  <si>
     <t>design tools</t>
   </si>
   <si>
@@ -229,18 +238,12 @@
     <t>design problems</t>
   </si>
   <si>
-    <t>linear systems</t>
+    <t>embedded systems</t>
   </si>
   <si>
     <t>mems device</t>
   </si>
   <si>
-    <t>microwave circuits</t>
-  </si>
-  <si>
-    <t>embedded systems</t>
-  </si>
-  <si>
     <t>solid-state electronics</t>
   </si>
   <si>
@@ -250,12 +253,21 @@
     <t>requisites chemistry</t>
   </si>
   <si>
+    <t>bl corequisite</t>
+  </si>
+  <si>
     <t>mems including</t>
   </si>
   <si>
     <t>microstructures microsensors</t>
   </si>
   <si>
+    <t>mems laboratory</t>
+  </si>
+  <si>
+    <t>areas such</t>
+  </si>
+  <si>
     <t>embedded computing</t>
   </si>
   <si>
@@ -286,18 +298,21 @@
     <t>science m152a</t>
   </si>
   <si>
+    <t>systems such</t>
+  </si>
+  <si>
     <t>plasma electronics</t>
   </si>
   <si>
-    <t>bl corequisite</t>
-  </si>
-  <si>
     <t>design automation</t>
   </si>
   <si>
     <t>speech processing</t>
   </si>
   <si>
+    <t>vlsi signal</t>
+  </si>
+  <si>
     <t>information theory</t>
   </si>
   <si>
@@ -310,6 +325,9 @@
     <t>wave electronics</t>
   </si>
   <si>
+    <t>enforced requisite</t>
+  </si>
+  <si>
     <t>enforced requisites</t>
   </si>
   <si>
@@ -319,27 +337,15 @@
     <t>single-stage amplifiers</t>
   </si>
   <si>
-    <t>design laboratory</t>
-  </si>
-  <si>
-    <t>mems laboratory</t>
-  </si>
-  <si>
     <t>requisites mathematics</t>
   </si>
   <si>
     <t>operational amplifier</t>
   </si>
   <si>
-    <t>wireless communications</t>
-  </si>
-  <si>
     <t>engineering /</t>
   </si>
   <si>
-    <t>semiconductor device</t>
-  </si>
-  <si>
     <t>public policy</t>
   </si>
   <si>
@@ -367,6 +373,15 @@
     <t>enforced corequisite</t>
   </si>
   <si>
+    <t>al bl</t>
+  </si>
+  <si>
+    <t>senior electrical</t>
+  </si>
+  <si>
+    <t>wireless networks</t>
+  </si>
+  <si>
     <t>circuits containing</t>
   </si>
   <si>
@@ -376,21 +391,15 @@
     <t>state analysis</t>
   </si>
   <si>
-    <t>al bl</t>
-  </si>
-  <si>
-    <t>wireless networks</t>
-  </si>
-  <si>
     <t>analysis introduction</t>
   </si>
   <si>
+    <t>/ electrical</t>
+  </si>
+  <si>
     <t>power systems</t>
   </si>
   <si>
-    <t>communication circuits</t>
-  </si>
-  <si>
     <t>project results</t>
   </si>
   <si>
@@ -403,22 +412,19 @@
     <t>network coding</t>
   </si>
   <si>
-    <t>fourier transform</t>
+    <t>numbered electrical</t>
   </si>
   <si>
     <t>computer engineering</t>
   </si>
   <si>
+    <t>design –</t>
+  </si>
+  <si>
     <t>machine learning</t>
   </si>
   <si>
-    <t>individual contract</t>
-  </si>
-  <si>
-    <t>laplace transforms</t>
-  </si>
-  <si>
-    <t>state power</t>
+    <t>ac steady</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1031,34 +1037,34 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1072,40 +1078,40 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1125,34 +1131,34 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1166,34 +1172,34 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1213,40 +1219,40 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1260,40 +1266,40 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1301,38 +1307,38 @@
         <v>24</v>
       </c>
       <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="L12">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
       <c r="M12">
         <v>5</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1354,40 +1360,40 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>5</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1422,19 +1428,19 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>5</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1448,37 +1454,37 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1489,46 +1495,46 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1536,43 +1542,43 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O17">
         <v>5</v>
@@ -1604,22 +1610,22 @@
         <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O18">
         <v>5</v>
@@ -1636,22 +1642,22 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1666,10 +1672,10 @@
         <v>5</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1683,40 +1689,40 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1730,37 +1736,37 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1777,40 +1783,40 @@
         <v>5</v>
       </c>
       <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="M22">
         <v>6</v>
       </c>
-      <c r="F22">
+      <c r="N22">
         <v>6</v>
       </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <v>6</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-      <c r="L22">
-        <v>4</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
       <c r="O22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1818,46 +1824,46 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1871,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1892,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1918,40 +1924,40 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1986,19 +1992,19 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2012,28 +2018,28 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -2045,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2059,10 +2065,10 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2080,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2106,37 +2112,37 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2159,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2174,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2247,40 +2253,40 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2300,34 +2306,34 @@
         <v>4</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2347,34 +2353,34 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2394,34 +2400,34 @@
         <v>4</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2441,22 +2447,22 @@
         <v>4</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2488,10 +2494,10 @@
         <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2529,28 +2535,28 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2588,28 +2594,28 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2617,28 +2623,28 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2664,46 +2670,46 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2711,7 +2717,7 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2735,22 +2741,22 @@
         <v>3</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2758,28 +2764,28 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2805,7 +2811,7 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2832,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -2852,46 +2858,46 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2899,7 +2905,7 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2932,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -2946,7 +2952,7 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2955,34 +2961,34 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O47">
         <v>5</v>
@@ -2993,7 +2999,7 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3002,22 +3008,22 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3040,7 +3046,7 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -3049,37 +3055,37 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3087,7 +3093,7 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3096,22 +3102,22 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3120,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3134,7 +3140,7 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3143,22 +3149,22 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3167,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3181,7 +3187,7 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3193,19 +3199,19 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3228,7 +3234,7 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3249,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3275,46 +3281,46 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>4</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54">
         <v>4</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3322,7 +3328,7 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3331,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3369,7 +3375,7 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3393,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3416,46 +3422,46 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3463,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3510,13 +3516,13 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3557,37 +3563,37 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -3604,7 +3610,7 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -3704,31 +3710,31 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -3757,16 +3763,16 @@
         <v>4</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64">
         <v>3</v>
@@ -3804,13 +3810,13 @@
         <v>4</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3860,16 +3866,16 @@
         <v>4</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -3907,16 +3913,16 @@
         <v>4</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -3939,31 +3945,31 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -3986,31 +3992,31 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4033,31 +4039,31 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4080,40 +4086,40 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4127,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4174,40 +4180,40 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4221,37 +4227,37 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -4271,25 +4277,25 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4298,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -4318,16 +4324,16 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -4365,37 +4371,37 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4412,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -4430,16 +4436,16 @@
         <v>4</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -4459,22 +4465,22 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4506,37 +4512,37 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4553,37 +4559,37 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4603,34 +4609,34 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4665,19 +4671,19 @@
         <v>4</v>
       </c>
       <c r="K83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4721,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4768,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>4</v>
@@ -4791,34 +4797,34 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K86">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4838,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -4850,16 +4856,16 @@
         <v>4</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N87">
         <v>5</v>
@@ -4885,34 +4891,34 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4932,34 +4938,34 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K89">
         <v>4</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4979,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -5000,13 +5006,13 @@
         <v>4</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5032,28 +5038,28 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5079,28 +5085,28 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J92">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5126,28 +5132,28 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5173,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5223,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -5270,25 +5276,25 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5320,22 +5326,22 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5370,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5417,19 +5423,19 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5511,19 +5517,19 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5558,19 +5564,19 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5611,13 +5617,13 @@
         <v>3</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5655,16 +5661,16 @@
         <v>3</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5705,13 +5711,13 @@
         <v>3</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5749,16 +5755,16 @@
         <v>3</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5793,19 +5799,19 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5846,13 +5852,13 @@
         <v>5</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5993,7 +5999,7 @@
         <v>3</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6037,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6081,13 +6087,13 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6128,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O114">
         <v>4</v>
@@ -6175,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6225,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6272,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6319,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O118">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6366,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6416,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6463,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6510,7 +6516,101 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
